--- a/PHP/購物車系統字典.xlsx
+++ b/PHP/購物車系統字典.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>資料表名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,69 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易資料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transactionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transactionTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -664,6 +727,93 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PHP/購物車系統字典.xlsx
+++ b/PHP/購物車系統字典.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CYclass\PHP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\PHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -46,177 +46,177 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commodity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品資料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommodityID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者資料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK(AI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料庫名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoppingDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易資料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transactionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transactionTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>userID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commodity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品資料表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommodityID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>commodityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者資料表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售價</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK(AI)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料庫名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoppingDB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易資料表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transactionID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>transactionTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -579,7 +579,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -592,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -617,10 +617,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -628,55 +628,55 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -684,55 +684,55 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -740,78 +740,78 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
